--- a/500all/speech_level/speeches_CHRG-114hhrg23641.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23641.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  DeSantis. The Subcommittee on National Security and the Subcommittee on Government Operations will come to order. Without objection, the chair is authorized to declare a recess at any time.    The United States confronts a wide array of threats at its borders, ranging from terrorists seeking to harm the United States to transnational criminals smuggling drugs and counterfeit goods to foreign nationals entering illegally in order to work in the United States unlawfully.    America's borders and ports are busy places. Every year, tens of millions of cargo containers and hundreds of millions of lawful travelers enter the country, while tens of thousands of illegal cargo entries are seized and hundreds of thousands of unauthorized migrants are arrested or denied entry.    At the same time, hundreds of thousands of illegal immigrants evade detection to enter the United States unlawfully and thousands of kilograms of illegal drugs and other contraband are smuggled into the country.    Recent terrorist attacks in the United States and Europe and worldwide have highlighted the national security challenges that we face. The November terrorist attacks in Paris transformed Europe's migration crisis into a security debate, spurring calls for European nations to reevaluate their open border policies. Yesterday's terrorist attacks in Brussels demonstrate the strength of the Islamic State, but also highlight the policies of European nations that have facilitated the establishment and growth of Islamic communities within these countries that are parallel to rather than integrated in Western society.    Concerns about borders are not limited to Europe. Recent reports state that the U.S. Customs and Border Protection has apprehended several members of known Islamist terrorist organizations crossing the southern border in recent years.    The Texas Department of Public Safety has reported that border security agencies have arrested several Somali immigrants crossing the southern border who are known members of al-Shabaab, the terrorist group that launched the deadly attack on the Westgate shopping mall in Nairobi, Kenya, as well as other Somali-based groups, including one funded by Osama bin Laden.    The Texas DPS stated that it had come into contact in recent years with ``special interest aliens'' who come from countries with known ties to terrorists or where terrorist groups thrive.    In all, immigrants from over 30 countries throughout Asia and the Middle East have been arrested over the past few years trying to enter the United States illegally in the Rio Grande Valley. Now the committee has obtained information from the Customs and Border Protection that confirms thousands of Indians, Chinese, Bangladeshi, and Sri Lankans have been apprehended at our borders in fiscal years 2014, 2015, and the first quarter of 2016. This data also shows that individuals have sought to enter the United States illegally from Afghanistan, Pakistan, Syria, Turkey, and beyond.    One potential vulnerability that such individuals could attempt to exploit is our Nation's generous asylum system. Aliens making asylum claims after they are apprehended by Border Patrol for entering illegally are being released into American society by the Obama administration.    The number of aliens making credible fear claims has increased exponentially in recent years. According to information provided to the committee by USCIS, the number of credible fear claims increased from 4,995 in fiscal year 2008 to 51,001 in fiscal year 2014, an increase of 921 percent.    Additionally, DHS is approving those claims the vast majority of the time. In fact, the approval rate is 87 percent.    By claiming to have a credible fear, these aliens set in motion a process that can forestall their removal while allowing them to remain in the United States potentially for years. Dangerous individuals such as gang members, cartel operatives, and even supporters and members of terrorist groups, could exploit the system. Such individuals could attempt to enter illegally. And if they successfully evade the Border Patrol, they can remain in the United States. If they get caught, they can make a credible fear claim and likely be released.    During a recent visit by staff to El Paso, Border Patrol and ICE confirmed that they are seeing increased numbers of Bangladeshi, Somalis, Pakistanis, and other nationals of countries of concern coming across the southern border and claiming credible fear.    These anecdotal reports are supported by information that USCIS provided the committee that states that thousands of nationals of these and other countries have claimed credible fear in recent years. For these reasons, Texas DPS has stated that ``an unsecure border with Mexico is the State's most significant vulnerability as it provides criminals and would-be terrorists from around the world a reliable means to enter Texas and the Nation undetected. This is especially concerning today, in light of the recent terrorist attacks and schemes around the world.''    I thank our witnesses for their testimony today and look forward to examining issues related to national security threats at our border and what can be done to combat this growing problem.    I now recognize Mr. Lynch, the ranking member of the Subcommittee on National Security, for his opening statement.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Lynch. Thank you very much, Mr. Chairman.    I also want to thank the panelists for helping the committee with its work.    I would like to also thank Chairman Meadows and Ranking Member Connolly for holding this hearing as well to examine immigration and border security.    I would also like to thank our witnesses again for your expertise in this area.    As reported by the United Nations High Commissioner for Refugees, we are witnessing the largest global forced displacement of people since World War II. Conflict, persecution, violence, and flagrant human rights violations have forcibly displaced nearly 60 million people worldwide, including 19.5 million refugees, 38 million internally displaced persons, and 1.8 million asylum-seekers. That is a 60 percent increase from 37.5 million displaced people recorded by UNHCR a decade ago.    Over 50 percent of the refugee population is now made up of children below 18 years of age, marking the highest child refugee figure in more than 10 years. In 2014, over 34,000 asylum applications were submitted by unaccompanied or separated children across 82 countries. That is the highest count on record since the agency began collecting this data in 2006.    The war in Syria and the rise of the Islamic State have been the driving factors behind the unprecedented surge in global displacement. Approximately 7.6 million people have been internally displaced within Syria alone, and more than 4 million refugees have fled the country since the start of the conflict in 2011.    The stark increase in global forced displacement coupled with devastating terrorist attacks in Paris, San Bernardino, Beirut, Istanbul, and Ankara in Turkey, and just yesterday in Brussels, Belgium, have led to ongoing policy debates in the U.S. over how best to prevent terrorists from infiltrating our legitimate immigration processes.    This is a critical and necessary examination that must entail fact-based oversight of our existing immigration and border security policies across-the-board. In the interest of national security, it must also be undertaken in a manner that continues to reflect our longstanding international commitment as a signatory to the 1951 Geneva Convention to protecting highly vulnerable individuals who are fleeing from persecution and violence, and as stated in a recent letter to Congress signed by 22 U.S. national security leaders from Democratic and Republican administrations alike, and I quote, ``We believe that America can and should continue to provide refuge to those fleeing violence and persecution without compromising the security and safety of our Nation. To do otherwise would undermine our core objective of combating terrorism.''    These leaders included General David Petraeus, the former Commander of U.S. Central Command; George Schultz, the former Secretary of State under President Reagan; and former NATO Supreme Allied Commander James Stavridis, who is now at Tufts University.    In furtherance of this committee's efforts to review our national security framework, Congressman Steve Russell of this committee and I recently traveled on an oversight mission to Turkey, Jordan, and Lebanon to assess and even participate in the vetting processes required for Syrian refugee settlement to the United States.    After visiting refugee camps along the Turkish-Syrian and Jordanian-Syrian borders, and meeting with various refugee families, we discovered that the vast majority, between 70 and 80 percent, are not even interested in resettlement at all. Rather, they seek to stay in the neighboring host countries, Turkey, Lebanon, and Jordan, in the hopes of returning home.    The overwhelming preference of these families is to stay close to Syria, indicating that one of our primary national security goals should be to ensure that financially strained host countries and international humanitarian agencies have the resources necessary to provide a dignified life for their refugee populations in place.    Regarding the vetting process itself, I must say that prior to our oversight visit, I had my serious doubts about the effectiveness of vetting conducted in virtual warzone environments, and I supported both the Republican and Democratic measures to enhance the vetting process.    I would note that the delegation arrived in Beirut only several months after a double suicide bombing in that city that killed over 40 people. We arrived in Istanbul only 4 days after a suicide bombing in a central square that killed 10 German tourists. And we left Kilis province only 1 day before a rocket attack fired from Syria hit a Kilis school.    However, for the small percentage of families who do seek resettlement to the United States, what we found in our oversight of vetting centers in all three host countries was a multilayered vetting process that is robust and extensive. It is conducted by specialized U.N. and U.S. agency personnel trained to ensure that only the most thoroughly vetted and the most vulnerable, or 1 percent, of Syrian refugee applicants are admitted for resettlement.    They are also very cautious in their work, given that any misstep in the vetting process could not only pose a grave danger to the American public, but also effectively halt resettlement for millions of legitimate refugees.    It is this type of fact-based oversight that should guide our review of immigration and border patrol procedures across-the-board. This is absolutely imperative at a time when our Federal agencies responsible for securing homeland security face severe budgetary constraints and every homeland security dollar must be allocated toward the most critical national security risks.    Mr. Chairman, I thank you again for holding this hearing, and I look forward to discussing these and other issues with our witnesses, and I yield back the balance of our time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Meadows. Thank you, Mr. Chairman. Thank you for your leadership.    And thank you, Ranking Member Mr. Lynch, for your not only fact-based willingness to look at the record, but also your willingness to work in a bipartisan manner to address this serious issue.    From the surge of unaccompanied minors and family units from Central America coming across our border to the ongoing Syrian refugee crisis, as well as the fiancee visa that was erroneously issued to the San Bernardino terrorist Tashfeen Malik, there seems to be no shortage of immigration issues that impact our national security. So today's hearing takes a closer look at the national security implications at our Nation's porous borders.    Now, I want to emphasize that it is a national security interest that brings us here today. There are plenty of other rhetoric and discussion that can go on as it relates to immigration and immigration policy. But, indeed, this is looking at not only immigration but at border security and how it affects national security.    It has been in the forefront of much of the political discussion in recent months. The Department of Homeland Security officials have often indicated to the American public that our borders are more secure today than they have ever been. I think many of us have heard that. They tout the low number of apprehensions as proof, which seems to be a little counterintuitive to me.    In fact, the GAO, the Government Accountability Office, has indicated that the DHS has no official metrics in place to measure whether our border is secure or not. So those statements are very difficult to comprehend, if there are no metrics in place.    Representatives from the Border Patrol tell us that the situation at the border is exactly the opposite of what the administration claims.    Undoubtedly, the United States has a proud history of providing refuge to victims of persecution and will continue to be unwavering in our commitment to be that beacon of freedom and hope for those facing persecution around the world. But when this administration fails to enforce our immigration laws, or turns a blind eye to the rampant fraud and abuse while rubberstamping--rubberstamping--credible fear claims at a rate as high as 92 percent, the integrity of our system is undermined. Our generosity is taken advantage of and our national security is at risk.    We should seek to protect the integrity of our immigration system from fraudulent claims made by those seeking to do us harm or subvert our rule of law. Individuals who seek to defraud the asylum process make a mockery of those who are truly persecuted, for those who are fleeing from fear.    The United States is one of the most generous nations in the world, and our asylum system is an extension of that generosity. And yet, various organizations are coaching people to claim credible fear in order to avoid deportation.    By invoking the credible fear claim, most aliens enter into a process by which they await proceedings before an immigration judge, which at the very least buys them more time in the United States. It often takes years, multiple years, before those court dates take place.    In the meantime, the alien is allowed to obtain a work permit, go about their business in the United States and, indeed, could embed in our communities. It seems to me that the word is out that claiming credible fear is the way to go.    The numbers sure say that much to me, and as we look at the credible fear claims that have grown exponentially in recent years, as Chairman DeSantis mentioned in his opening remarks, one of my biggest concerns is that nefarious actors have taken advantage of our generosity.    Gang members, cartel operators, supporters of terrorist groups can game the system and make use of credible fear to remain here in the United States. Even according to DHS, aliens with known or claimed ties to cartels and terrorist groups have been apprehended along the border claiming credible fear.    The data this committee has received confirms that the Border Patrol is encountering migrants from Afghanistan, Bangladesh, Egypt, Iran, Iraq, Lebanon, Pakistan, Saudi Arabia, Somalia, and Turkey. Now this is coming across our southern border, and these are just the individuals that were apprehended.    So what about all of those who were never seen by law enforcement at all and make it into the interior of our country?    I hope to hear from our witnesses today on their assessment of the current holes that might enable these bad actors to take advantage of our system. Most importantly, I would like to hear what should be done to address these deficiencies and help ensure the safety of the American public.    Mr. Chairman, I would like to ask unanimous consent to enter the following documents into the record. One would be U.S. Border Patrol nationwide apprehensions for 2015 and 2016. The other is the USCIS credible fear nationality reports for fiscal year 2014, 2015, and for quarter one of 2016, and the USCIS credible fear data and affirmative asylum case data. I ask unanimous consent.</t>
   </si>
   <si>
@@ -88,45 +79,30 @@
     <t xml:space="preserve">    Mr.  DeSantis. Thank you. I will hold the record open for 5 legislative days for any members who would like to submit a written statement.    We will now recognize our panel of witnesses. I am pleased to welcome Mr. Ronald Vitiello, Acting Chief of the U.S. Border Patrol at the U.S. Customs and Border Protection; Mr. Steven McCraw, director of the Texas Department of Public Safety; Mr. Brandon Judd, president of the National Border Patrol Council; Professor Jan Ting, professor at the Temple University Beasley School of Law; and Ms. Eleanor Acer, senior director of refugee protection at Human Rights First. Welcome all.    Pursuant to committee rules, all witnesses will be sworn in before they testify.    If you can please rise and raise your right hand?    Do you solemnly swear the testimony you are about to give will be the truth, the whole truth, and nothing but the truth, so help you God?    Thank you. Please be seated.    All witnesses answered in the affirmative.    In order to allow time for discussion, please limit your oral testimony to 5 minutes. Your entire written statement will be made part of the record.    Mr. Vitiello, you are up. Five minutes.</t>
   </si>
   <si>
-    <t>Vitiello</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Vitiello. Thank you, Chairman DeSantis, Chairman Meadows, Ranking Member Lynch, and distinguished members of the subcommittees. It is an honor to appear before you today to discuss the role of the United States Border Patrol in protecting national security and defending threats against our border.    During my law enforcement career of more than 30 years in the U.S. Border Patrol, the border environment has changed not only the intentions, tactics, and capabilities of our adversaries, but also in our resources, our capabilities, and our operational approach to securing the border.    Today, we focus not only on responding to the complex and rapidly changing border conditions, but we also work to decrease the risk and potential threats. We do this through strategic and risk-based deployment of resources, and by expanding and increasing our capabilities through intelligence, information-sharing, partnerships, and operational collaboration.    In all border environments--land, air, and sea--technology is critical to security operations. Effective fixed and mobile surveillance and detection systems provide increased situational awareness of illicit cross-border activity. Advanced technology also increases our ability to identify changes in the border environment and rapidly respond as appropriate to emerging threats along and approaching our borders.    Detecting and interdicting terrorists and their weapons will also be a focus priority of the border security mission.    Also, the illegal cross-border activities of transnational criminal organizations involved in cross-border trafficking of guns, currency, human smuggling, and drugs pose a continuous threat to border security and public safety.    Responding to the continued flow of unaccompanied alien children and families across the Southwest border is also a priority.    The border regions in the United States are most secure when using a whole-of-government approach that leverages interagency and international partnerships as a force multiplier. The Border Patrol is an active participant in the DHS Southern Border and Approaches Campaign, and has a leading role in the Joint Task Force-West, an integrated operational approach to addressing the threat of transnational criminal organizations along and approaching the Southwest border. This effort directs DHS resources in a much more collaborative fashion to address the broad and complex range of threats and challenges, including illegal migration; smuggling of illegal drugs, humans and arms trafficking; illicit financing of such operations; and the threat of terrorist exploitation of border vulnerabilities.    The creation of the task force increases information-sharing between Federal, State, local, and international law enforcement agencies; improves situational awareness; enhances border-wide interdiction operations; and improves our ability to counter transnational threats and associated violence.    Using a risk-based and intelligence-driven approach, the Border Patrol and more broadly CBP and DHS will continue to enhance our efforts, anticipate and respond to threats to national security, and ensure the safety of the U.S. public.    The continued focus on unity of effort, in conjunction with intelligence and operational integration, the deployment of advanced technology, enhances our situational awareness, better enables us to effectively and efficiently detect, respond to, and disrupt threats in the Nation's border regions and approaches to the secure the homeland.    In closing, let me state the obvious. It is the men and women of CBP and the Border Patrol agents who face the threats that we will discuss today. Agents deploy in all manner of weather and rough terrain 24/7/365.    I am blessed to be in their leadership cadre. I am grateful for their dedication and professionalism. The Nation is safer, and the communities that they serve are better protected because of their efforts. They have my unwavering support and continued effort to let them do their jobs in the safest manner possible.    Thank you for having me as a witness today. I look forward to the opportunity to testify and your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  DeSantis. Thank you.    Mr. McCraw, 5 minutes.                  STATEMENT OF STEVEN C. McCRAW</t>
   </si>
   <si>
-    <t>McCraw</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  McCraw. Mr. Chairman, members, thank you for the opportunity to testify before you today. Steve McCraw, Texas Department of Public Safety.    I want to echo a few comments that the chief made, but I would be remiss of two things if I didn't first mention the Governor's comments yesterday on the aftermath of the Brussels attack, the cowardly attack by terrorists.    He pointed out that our hearts and prayers are with the Brussels victims. Our minds must realize the consequences of open borders. And our resolve must be security.    Clearly, the Governor and the Texas State Legislature understand the scope and magnitude of the threat and vulnerability of Texas and the rest of the Nation.    What happens on the Texas-Mexico border doesn't just affect Texas or even just the border region. It affects the entire Nation, whether it is transnational crime or if it is a national security threat.    Clearly, special interest aliens are a problem, and we've recognized that. This is not a new phenomenon. As the FBI Special Agent in Charge in 2002, we learned that Border Patrol was detaining, detecting, detaining, apprehending individuals from countries with known Al Qaeda presence at that point in time. That's continued on. It's understandable why Texans are concerned from a national security standpoint.    To that point, we've talked about changes that we've seen over the years, and the chief referred to. Crime is remarkably different. It's more transitory. It's transnational. It's organized. It's more discreet.    Certainly, it can compromise and undermine public safety and homeland security and national security.    From a Texas standpoint, it's been very clear in terms from the Governor and our State Legislature that two things in terms of guiding principles--a sense of urgency and unity of effort.    Fortunately, with the chief over here, I know when he was sector chief of Rio Grande Valley for the Border Patrol, he was a team player. And we were able to do unity of effort and work closely with him.    I can tell you right now that if properly resourced, they have the leadership and type of people that can get the job done to secure the Texas-Mexico border. That's important.    Until that time, our strategic intent by our Legislature, our Governor, the Texas Department of Public Safety, working with our local and other State partners that includes Texas Military Forces, our game wardens, will provide direct support to Border Patrol in the detection, deterrence, and interdiction of smuggling events that occur between the ports of entry, and do so very aggressively.    Every day, we deploy Texas State troopers, Texas Rangers and special agents in the Department of Public Safety from around the State down to the Rio Grande Valley where right now is the epicenter of drug and human smuggling into the United States, and we'll continue to do so. This will be our direction until the border is secure.    There are a number of things that certainly can be done, if properly resourced. There's no doubt that Border Patrol can get the job done. We look forward to that day when they do have the resources to be able to do that.    That concludes my comments at this point.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  DeSantis. Thank you.    Mr. Judd, 5 minutes.</t>
   </si>
   <si>
-    <t>Judd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Judd. Chairman DeSantis, Chairman Meadows, Ranking Member Lynch, I appreciate the opportunity to testify on behalf of the 16,500 Border Patrol agents which I represent.    I am going to stick to my comments on the national security threat of the border and leave out the rhetoric and what might have led to it. But what I will tell you is that the Obama administration and CBP Commissioner Kerlikowske have repeatedly told the American public that the border is more secure today than it has ever been. As a Border Patrol agent, I will tell you the exact opposite.    Commissioner Kerlikowske and the administration have pointed to a decrease in arrests over the past several years, but they failed to give the American public key indicators such as the number of arrests of persons from countries with known terrorist ties or from countries that compete economically with our interests.    In all of fiscal year 2015, the United States Border Patrol arrested five persons from Afghanistan, 57 from Pakistan, and 1,327 from the People's Republic of China. Already in the first 5 months of this fiscal year, the United States Border Patrol has arrested 18 from Afghanistan--the first quarter, five of all last year, the first quarter--18 from Afghanistan, 79 from Pakistan--all of 2015, again, was 18--and 619 from the People's Republic of China. Those numbers should alarm everyone.    We are seeing a similar trend from other key countries like Albania, Bangladesh, and Brazil.    If the single factor for the litmus test is lower numbers, then compared to fiscal year 2015, one must conclude we are failing.    As someone who has been involved in border protection for over 18 years, I can unequivocally tell you the border is not secure, and the situation is getting worse instead of better.    Arrests are not the only factor in determining whether the border is secure. We have to look at the totality of the situation, such as violence, the number of persons evading arrest, and whether organized crime continues to turn a profit.    In the context of the times, we must also look at whether persons from country who would do us harm are able to exploit our weaknesses through our policies or the lack of manpower on the border.    It is well-documented that criminal cartels control the border in the same way inmates control most prison facilities. The cartels are extremely well-organized, pathologically violent, and have an entire infrastructure on both sides of the border.    In Mexico, it is estimated that over 150,000 people have been killed in cartel-related violence. They have killed police officers, judges, elected officials, and ordinary civilians who have crossed their path.    This is the opponent Border Patrol agents face daily. It is an opponent that controls all aspects of border crimes, including narcotics and illegal immigrant smuggling.    One key way to determine whether the cartels are winning is to analyze key data of entries to arrest. Two weeks ago, I was visiting a station in the Del Rio Border Patrol sector. During that week that I was there--I was there 1 day, but during that week in which I was there, a total of 157 known entries came into the United States through that station's area of responsibility.    Of those 157: 74 were arrested; 54 were known to have evaded arrest and furthered their entry into the United States; 17 were able to evade arrest and make it back to Mexico; and 12 were still outstanding and unaccounted for.    That is a 47 percent arrest rate. That is not very good.    But it's not the Border Patrol agents' fault. We're just simply overmanned. We don't have the resources that are necessary.    In fact, yesterday I received an email from an agent in Arizona, and that email said that there was a 10-mile stretch for 2 days, and this is documented on the reports from the Border Patrol management, a 10-mile stretch of border that was unmanned for 2 whole days.    Criminal cartels were able to go to the fence, cut a hole in the fence, drive two vehicles through that hole and escape. They were able then to put the fence back up and try to hide the cuts that they had made.    Border Patrol agents were able to go down and see the vehicle tracks. There was actually a camera that did catch the two vehicles on the border. They didn't see the vehicle drive through the border, but the tracks clearly indicate that it was, and there was no were no other vehicles coming from east, so it had to be those two vehicles that crossed the border.    The scariest part of those vehicles entering into the United States is we don't know what was in this vehicles. We have no idea.    Of those persons that were able to evade arrest in this Del Rio station, those 54 and the 12 outstanding, we don't know where they were from.    It's unfortunate that we're currently in this situation in which it appears that we invite what we're currently experiencing. And because we are overmanned--and it's not that they didn't want to man the border in these two areas in Arizona that this vehicle drove through, they just didn't have the manpower to do it. That is the unfortunate situation today.    I look forward to answering any and all of your questions. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  DeSantis. Thank you.    Professor Jan Ting, 5 minutes.</t>
   </si>
   <si>
-    <t>Ting</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Ting. I share the comments of my copanelists. Thanks to the two subcommittee chairmen and all the members for inviting us here today.    I also share the concern over the statistical information that the members, particularly Mr. Meadows, have referred to. And I share the concern that Mr. Judd has just expressed about the situation at our border.    I want to talk about two issues, in particular, expedited removal and credible fear, that I think bear on the concern that many of us here share.    Prior to 1996, we had no expedited removal, and arriving aliens in the United States could basically stay for a long time by making an asylum claim. There was an enormous backlog, and they were put in line and released on their own recognizance.    There was also a 60 Minutes piece which showed that people were landing at Kennedy Airport every single day without documentation and being released into the general population. That I think pushed Congress in 1996 to enact expedited removal, which on its face provides a way to turn arriving aliens around who lack any documentation.    The problem is, as I discuss in my written comments, in one of the classic bipartisan compromises for which Congress is alternately praised and condemned, Congress enacted expedited removal in a way that provides that if the--first of all, they did two things.    First of all, they determined that the first interview would be a credible fear interview. In the end, even though they tried to take the immigration judges out, as I discuss in my written comments, the immigration judges get back into the process anyway. So while it looks good on its face, expedited removal in practice hasn't worked out very well, even though it has been expanded not just to arriving aliens but within 100 miles of the border.    So expedited removal is potentially a useful tool, but it's hobbled by this credible fear determination and by the ultimate right to delay removal by an appeal to an immigration judge. So there are two problems.    I talked in my written comments about credible fear, and where did credible fear come from anyway? I have some knowledge about that, because I know that in 1991 in the midst of the Haitian migrant crisis, when we had a lot of Haitians heading for the United States, we were trying to kind of in a chaotic situation manage that flow and provide asylum interviews for people. It was very difficult. In fact, we started operating the detention facilities at Guantanamo in an effort to cope with that migrant crisis.    And the Immigration and Naturalization Service invented credible fear kind of on-the-fly as a way of screening out people who obviously were not entitled to asylum. If people couldn't even present a story, which, if true, would entitle them to asylum, we determined that they could be turned around immediately and returned to Haiti without a full-blown asylum interview.    On the other hand, for those people who could articulate a coherent story that seemed credible, they would be allowed to advance to a full-blown asylum interview, recognizing there was a backlog for that and it would slow the process down. But for those people, they would get the full asylum interview.    As it turns out, that credible fear practice was very short-lived, because the numbers were so enormous that President Bush, George H.W. Bush, determined that we couldn't continue processing migrants from Haiti. And he determined that they would all be returned to Haiti without any processing at all.    Obviously, that was challenged by many advocates and went all the way to the Supreme Court of the United States, and the Supreme Court of the United States in 8-to-1 decision in a case called Sale v. United States, which I cite in my written remarks, the Supreme Court of the United States held that that was fine, that the United States had no obligation under its own laws or under international law to conduct asylum interviews on the high seas.    So credible fear was a temporary measure that probably wasn't even necessary in the end. It only lasted for a few months.    And I was startled to see credible fear appear in the statute of the United States as part of our expedited removal process. When expedited removal came in, credible fear shows up in the statute. Where does that come from?    So while it was invented as a device to screen out migrants, as has been commented on, it's being used now as a device to screen people in, so they don't have to actually approve their asylum claims. All they have to do is state a credible fear and they are basically in. They join the queue for an immigration judge, so they can make their asylum claim in removal proceedings. And we know that can sometimes take a long time.    And that the word is out, this is how you do it. You make a good credible fear claim and you're in. In this age of modern, instantaneous communications, that word spreads quickly.    So I am very concerned about that. And I have a number of proposals. I'm over time already, but I do want to say, I think we need to train more asylum officers. We ought to train all of our immigration offices, including Border Patrol agents, in asylum law, and we ought to have them do asylum interviews.    I think we ought to, as I propose in my written comments, remove credible fear from the statute. It doesn't belong there. We should go straight to an asylum interview. And we ought to have enough asylum officers, including trained Border Patrol agents and other Customs and Border Patrol officers, to do that.    I have other recommendations, and I refer you to my written comments. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  DeSantis. Thank you.    Ms. Acer, you are up for 5 minutes.</t>
   </si>
   <si>
-    <t>Acer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms.  Acer. Thank you so much, Chairman DeSantis, Chairman Meadows, Ranking Member Lynch, and members of the subcommittees. It is an honor to be here today to offer our views regarding national security at our borders and the importance of the U.S. commitment to protect refugees.    The horrific terrorist attacks in Brussels yesterday are yet another reminder of the terrible harms that terrorists are inflicting on innocent civilians around the world.    Human Rights First is a nonprofit organization with offices in Texas, New York, and Washington, D.C. We operate one of the largest pro bono legal representation programs for asylum-seekers in the country, working in partnership with lawyers from some of the Nation's leading law firms.    The United States can and must protect its national security, and can and must do so while also complying with its human rights and refugee protection commitments, as made clear in the letter from leading national security experts of both parties referenced earlier by Ranking Member Lynch.    Both at the formal points of entry as well as at our land borders, CBP has extensive tools and databases to identify individuals who present a risk to national security, including databases that contain information from various U.S. agencies and foreign sources. For cases that enter the process through credible fear as well, DHS asylum officers also conduct a range of vetting and checks. Before an individual can be granted asylum, they have to be either interviewed by an asylum officer or through an immigration court hearing.    Only a very small portion of the world's refugees seek protection here in the United States. The increase in Central American claims from the Northern Triangle, including children and families, have not only affected the United States. The U.N. refugee agency has reported that the countries of Mexico, Belize, Costa Rica, Nicaragua, and Panama have seen the number of asylum applications from the Northern Triangle countries grow to nearly 13 times what it was in 2008.    While a very small portion of asylum-seekers also come from outside the hemisphere, many of those small numbers come from top refugee-hosting states, as well as from China.    U.S. leadership in protecting refugees is not only a reflection of American ideals, it also advances U.S. national security and foreign policy interests.    Earlier this year, I too visited Jordan, Lebanon, and Turkey to assess the Syrian refugee crisis. The critical infrastructures of frontline refugee-hosting states are under severe pressure. And as Ryan Crocker, former U.S. Ambassador to Syria, Iraq, and Lebanon, has explained, U.S. efforts to share in hosting some Syrian refugees affirmatively advance U.S. national security interests by helping to protect the stability of a region that is home to some key U.S. allies.    In our policies and practices, as well as in public rhetoric, it's critical to distinguish between the victims of terror and repression on the one hand, and the perpetrators of horrific acts on the other.    As a number of leading U.S. national security experts have described, efforts to bar Syrian refugees, for example, are counterproductive from a national security perspective, as they actually help the ISIL narrative. Former DHS Secretary Michael Chertoff has cautioned that you don't want to play into the narrative of the bad guy. That's giving propaganda to the enemy.    A strong asylum and immigration system that adjudicates the immigration removal cases before it in a timely and fair manner is essential both for ensuring the integrity of the U.S. immigration process as well as for protecting refugees from return to places of persecution.    Yet, over 480,000 immigration court removal cases have now been pending for an average of 667 days in the U.S. immigration courts, with projected average wait times around 3 years. We urge Congress to support the addition of immigration judges and additional support staff to address this backlog.    Finally, the current asylum system is actually failing to provide protection in a manner consistent with this country's commitments. Over the years, so many barriers and hurdles and technical complexities have been added to the asylum system that refugees who seek the protection of the United States often find themselves denied asylum, delayed in receiving protection, or, in many cases that we see from our work day in and day out, lingering for months in jails and jail-like immigration detention facilities.    In our experience, the expedited removal system and the credible fear process, which I think has a 78 percent pass right now, is actually preventing many legitimate refugees from even applying for asylum. I am happy to answer questions about this.    Many cannot navigate this increasingly complicated system without legal counsel, and many go unrepresented because they cannot afford that.    In my testimony, I have outlined a number of additional recommendations, and I'm happy to talk about those. Thank you so much for the opportunity.</t>
   </si>
   <si>
@@ -343,9 +319,6 @@
     <t xml:space="preserve">    Mr.  DeSantis. I thank the gentleman.    The chair now recognizes the gentlewoman from Illinois for 5 minutes.</t>
   </si>
   <si>
-    <t>Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms.  Kelly. Thank you, Mr. Chair.    Welcome, witnesses.    In today's complex threat environment, effective counterterrorism and law enforcement efforts rely on sophisticated intelligence-gathering and sharing capabilities. Especially because of their exponential effects, we should focus our efforts to strengthen the border on these intelligence capabilities.    Mr. Vitiello, your written testimony states, and I quote, ``A whole-of-government approach that leverages interagency and international partnerships as a force multiplier has been and will continue to be the most effective way to keep our borders secure.''    Which other agencies does Customs and Border Patrol share intelligence or information with to secure the border?</t>
   </si>
   <si>
@@ -388,9 +361,6 @@
     <t xml:space="preserve">    Mr.  DeSantis. The chair now recognizes the gentleman from Florida, Mr. Mica, for 5 minutes.</t>
   </si>
   <si>
-    <t>Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Mica. Thank you, Mr. Chairman, for holding this joint hearing. I think there couldn't be a better time, with incidents that we have seen most recently and around the world relating to terrorism and our border vulnerability.    I guess you would probably conclude that our borders are porous, a sieve, and tens of thousands of illegals are coming across the border.    Would that be appropriate, Mr. Judd? Do you think that is correct?</t>
   </si>
   <si>
@@ -457,9 +427,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Connolly. I thank the chair, and I would ask unanimous consent that my statement be entered into the record in full.</t>
   </si>
   <si>
@@ -547,9 +514,6 @@
     <t xml:space="preserve">    Mr.  DeSantis. The gentleman's time has expired.    The chair now recognizes the gentleman from Georgia for 5 minutes.</t>
   </si>
   <si>
-    <t>Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Hice. Thank you, Mr. Chairman.    Mr. Judd, let me kind of go a little different direction here for a moment. You have noted in the past some of the challenges of securing the border on Federal lands.    Specifically, what sort of obstacles do agents face when access is limited, say due to endangered species or wilderness designations?</t>
   </si>
   <si>
@@ -601,9 +565,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Walberg. Thank you, Mr. Chairman.    And thanks to the panel for being here.    Mr. Judd, a constituent of mine who is a DHS officer contacted me. He has been working on the border in California. He expressed concerns about a policy, as he puts it, with California and Mexico where individuals who cross the border illegally cannot be sent home but are processed through, and then released into the U.S. with court dates as long as 7 to 10 years down the road. Are you aware of that policy?</t>
   </si>
   <si>
@@ -688,9 +649,6 @@
     <t>412619</t>
   </si>
   <si>
-    <t>Ken Buck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Buck. Mr. Judd, real quickly, 2014, as a result of the change in the President's policy on immigration, in 2014, we saw a surge of minors crossing the borders. Is that true?</t>
   </si>
   <si>
@@ -752,9 +710,6 @@
   </si>
   <si>
     <t>412661</t>
-  </si>
-  <si>
-    <t>Glenn Grothman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  Grothman. I may cover some territory you have already covered a little bit. But I want, in general, and this is a question maybe for Mr. Judd and Mr. Ting, in general, how effective do you believe the administration's commitment to border security has been? And I also want you compare it, because I am not a partisan person. I am under the impression that we were not getting a lot in the past administration either.    So I guess I would like to even change the question to say, how sincere has the commitment been both in this administration and the last administration to border security, which to me is just a basic part of being a country?</t>
@@ -1174,11 +1129,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1198,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1226,11 +1177,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1250,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1278,11 +1225,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1302,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1330,11 +1273,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1356,11 +1297,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1382,11 +1321,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1408,11 +1345,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1434,11 +1369,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1460,11 +1393,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1486,11 +1417,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1512,11 +1441,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1538,11 +1465,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1564,11 +1489,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1590,11 +1513,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1616,11 +1537,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1642,11 +1561,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1668,11 +1585,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1694,11 +1609,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1720,11 +1633,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1746,11 +1657,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1772,11 +1681,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1798,11 +1705,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1824,11 +1729,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1850,11 +1753,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1876,11 +1777,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1902,11 +1801,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1928,11 +1825,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1954,11 +1849,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1978,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2006,11 +1897,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2030,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2058,11 +1945,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2082,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2110,11 +1993,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2134,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2162,11 +2041,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2186,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2214,11 +2089,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2238,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2266,11 +2137,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>36</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2290,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2318,11 +2185,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2342,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2370,11 +2233,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2394,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2422,11 +2281,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>36</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2446,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2474,11 +2329,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2498,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2526,11 +2377,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2550,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2578,11 +2425,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2602,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2630,11 +2473,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2654,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2682,11 +2521,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>36</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2706,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2734,11 +2569,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2758,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2786,11 +2617,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2810,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2838,11 +2665,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2862,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2890,11 +2713,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2914,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2942,11 +2761,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2966,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2994,11 +2809,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3018,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3046,11 +2857,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3070,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3098,11 +2905,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>30</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3122,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3150,11 +2953,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>30</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3174,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3202,11 +3001,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>30</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3226,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3254,11 +3049,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>30</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3278,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3306,11 +3097,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>30</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3330,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3358,11 +3145,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>30</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3382,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3410,11 +3193,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>30</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3434,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3462,11 +3241,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3488,11 +3265,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>109</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3514,11 +3289,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3540,11 +3313,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>109</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3566,11 +3337,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3592,11 +3361,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>109</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3618,11 +3385,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3644,11 +3409,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>109</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3670,11 +3433,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3696,11 +3457,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
         <v>109</v>
-      </c>
-      <c r="H99" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3722,11 +3481,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3748,11 +3505,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>109</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3774,11 +3529,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3800,11 +3553,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>109</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3826,11 +3577,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3852,11 +3601,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>124</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3878,11 +3625,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>30</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3904,11 +3649,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>124</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3930,11 +3673,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>30</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3956,11 +3697,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>124</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3982,11 +3721,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>24</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4008,11 +3745,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>124</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4034,11 +3769,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>24</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4060,11 +3793,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>124</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4086,11 +3817,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>30</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4112,11 +3841,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>124</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4138,11 +3865,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>30</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4164,11 +3889,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>124</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4190,11 +3913,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>24</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4216,11 +3937,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>124</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4242,11 +3961,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4268,11 +3985,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>124</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4294,11 +4009,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>24</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4320,11 +4033,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>124</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4346,11 +4057,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>24</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4372,11 +4081,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>124</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4398,11 +4105,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4422,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>146</v>
-      </c>
-      <c r="G127" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4450,11 +4153,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4474,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>146</v>
-      </c>
-      <c r="G129" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4502,11 +4201,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>24</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4526,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>146</v>
-      </c>
-      <c r="G131" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4554,11 +4249,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>24</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4578,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>146</v>
-      </c>
-      <c r="G133" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4606,11 +4297,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>24</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4630,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>146</v>
-      </c>
-      <c r="G135" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4658,11 +4345,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>24</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4682,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
+        <v>136</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
         <v>146</v>
-      </c>
-      <c r="G137" t="s">
-        <v>147</v>
-      </c>
-      <c r="H137" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4710,11 +4393,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>24</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4734,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>146</v>
-      </c>
-      <c r="G139" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4762,11 +4441,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>36</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4786,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>146</v>
-      </c>
-      <c r="G141" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4814,11 +4489,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>36</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4838,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>146</v>
-      </c>
-      <c r="G143" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4866,11 +4537,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>24</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4890,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G145" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4918,11 +4585,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>24</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4942,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>146</v>
-      </c>
-      <c r="G147" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4970,11 +4633,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>24</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4994,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>146</v>
-      </c>
-      <c r="G149" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5022,11 +4681,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>24</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5046,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>146</v>
-      </c>
-      <c r="G151" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5074,11 +4729,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5098,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>146</v>
-      </c>
-      <c r="G153" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5126,11 +4777,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5150,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>146</v>
-      </c>
-      <c r="G155" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5178,11 +4825,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5204,11 +4849,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>177</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5230,11 +4873,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>30</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5256,11 +4897,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>177</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5282,11 +4921,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>24</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5308,11 +4945,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>177</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5334,11 +4969,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>24</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5360,11 +4993,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>177</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5386,11 +5017,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5412,11 +5041,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>177</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5438,11 +5065,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>30</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5464,11 +5089,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>177</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5490,11 +5113,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>33</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5516,11 +5137,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>177</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5542,11 +5161,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>27</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5568,11 +5185,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>36</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5594,11 +5209,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5618,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>194</v>
-      </c>
-      <c r="G173" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5646,11 +5257,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>30</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5670,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>194</v>
-      </c>
-      <c r="G175" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5698,11 +5305,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>30</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5722,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>194</v>
-      </c>
-      <c r="G177" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5750,11 +5353,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>30</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5774,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>194</v>
-      </c>
-      <c r="G179" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5802,11 +5401,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>30</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5826,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>194</v>
-      </c>
-      <c r="G181" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5854,11 +5449,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>24</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5880,11 +5473,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>36</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5904,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
+        <v>182</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
         <v>194</v>
-      </c>
-      <c r="G184" t="s">
-        <v>195</v>
-      </c>
-      <c r="H184" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5932,11 +5521,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>36</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5956,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>194</v>
-      </c>
-      <c r="G186" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5984,11 +5569,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>30</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6008,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>194</v>
-      </c>
-      <c r="G188" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6036,11 +5617,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>30</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6060,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>194</v>
-      </c>
-      <c r="G190" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6088,11 +5665,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>30</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6112,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>194</v>
-      </c>
-      <c r="G192" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6140,11 +5713,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>27</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6164,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>194</v>
-      </c>
-      <c r="G194" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6192,11 +5761,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>27</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6216,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>194</v>
-      </c>
-      <c r="G196" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6244,11 +5809,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>27</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6268,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>194</v>
-      </c>
-      <c r="G198" t="s">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6296,11 +5857,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6320,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>223</v>
-      </c>
-      <c r="G200" t="s">
-        <v>224</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6348,11 +5905,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>30</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6372,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>223</v>
-      </c>
-      <c r="G202" t="s">
-        <v>224</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6400,11 +5953,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>30</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6424,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>223</v>
-      </c>
-      <c r="G204" t="s">
-        <v>224</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6452,11 +6001,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>30</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6476,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>223</v>
-      </c>
-      <c r="G206" t="s">
-        <v>224</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6504,11 +6049,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>24</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6528,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>223</v>
-      </c>
-      <c r="G208" t="s">
-        <v>224</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6556,11 +6097,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>24</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6580,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>223</v>
-      </c>
-      <c r="G210" t="s">
-        <v>224</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6608,11 +6145,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>24</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6632,13 +6167,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
+        <v>210</v>
+      </c>
+      <c r="G212" t="s"/>
+      <c r="H212" t="s">
         <v>223</v>
-      </c>
-      <c r="G212" t="s">
-        <v>224</v>
-      </c>
-      <c r="H212" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6660,11 +6193,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>24</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6684,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>223</v>
-      </c>
-      <c r="G214" t="s">
-        <v>224</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6712,11 +6241,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>24</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6736,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>223</v>
-      </c>
-      <c r="G216" t="s">
-        <v>224</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6764,11 +6289,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>24</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6788,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>223</v>
-      </c>
-      <c r="G218" t="s">
-        <v>224</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6816,11 +6337,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6840,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>245</v>
-      </c>
-      <c r="G220" t="s">
-        <v>246</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6868,11 +6385,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>33</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6892,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>245</v>
-      </c>
-      <c r="G222" t="s">
-        <v>246</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6920,11 +6433,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>33</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6944,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>245</v>
-      </c>
-      <c r="G224" t="s">
-        <v>246</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6972,11 +6481,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>30</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6996,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>245</v>
-      </c>
-      <c r="G226" t="s">
-        <v>246</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23641.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23641.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  DeSantis. The Subcommittee on National Security and the Subcommittee on Government Operations will come to order. Without objection, the chair is authorized to declare a recess at any time.    The United States confronts a wide array of threats at its borders, ranging from terrorists seeking to harm the United States to transnational criminals smuggling drugs and counterfeit goods to foreign nationals entering illegally in order to work in the United States unlawfully.    America's borders and ports are busy places. Every year, tens of millions of cargo containers and hundreds of millions of lawful travelers enter the country, while tens of thousands of illegal cargo entries are seized and hundreds of thousands of unauthorized migrants are arrested or denied entry.    At the same time, hundreds of thousands of illegal immigrants evade detection to enter the United States unlawfully and thousands of kilograms of illegal drugs and other contraband are smuggled into the country.    Recent terrorist attacks in the United States and Europe and worldwide have highlighted the national security challenges that we face. The November terrorist attacks in Paris transformed Europe's migration crisis into a security debate, spurring calls for European nations to reevaluate their open border policies. Yesterday's terrorist attacks in Brussels demonstrate the strength of the Islamic State, but also highlight the policies of European nations that have facilitated the establishment and growth of Islamic communities within these countries that are parallel to rather than integrated in Western society.    Concerns about borders are not limited to Europe. Recent reports state that the U.S. Customs and Border Protection has apprehended several members of known Islamist terrorist organizations crossing the southern border in recent years.    The Texas Department of Public Safety has reported that border security agencies have arrested several Somali immigrants crossing the southern border who are known members of al-Shabaab, the terrorist group that launched the deadly attack on the Westgate shopping mall in Nairobi, Kenya, as well as other Somali-based groups, including one funded by Osama bin Laden.    The Texas DPS stated that it had come into contact in recent years with ``special interest aliens'' who come from countries with known ties to terrorists or where terrorist groups thrive.    In all, immigrants from over 30 countries throughout Asia and the Middle East have been arrested over the past few years trying to enter the United States illegally in the Rio Grande Valley. Now the committee has obtained information from the Customs and Border Protection that confirms thousands of Indians, Chinese, Bangladeshi, and Sri Lankans have been apprehended at our borders in fiscal years 2014, 2015, and the first quarter of 2016. This data also shows that individuals have sought to enter the United States illegally from Afghanistan, Pakistan, Syria, Turkey, and beyond.    One potential vulnerability that such individuals could attempt to exploit is our Nation's generous asylum system. Aliens making asylum claims after they are apprehended by Border Patrol for entering illegally are being released into American society by the Obama administration.    The number of aliens making credible fear claims has increased exponentially in recent years. According to information provided to the committee by USCIS, the number of credible fear claims increased from 4,995 in fiscal year 2008 to 51,001 in fiscal year 2014, an increase of 921 percent.    Additionally, DHS is approving those claims the vast majority of the time. In fact, the approval rate is 87 percent.    By claiming to have a credible fear, these aliens set in motion a process that can forestall their removal while allowing them to remain in the United States potentially for years. Dangerous individuals such as gang members, cartel operatives, and even supporters and members of terrorist groups, could exploit the system. Such individuals could attempt to enter illegally. And if they successfully evade the Border Patrol, they can remain in the United States. If they get caught, they can make a credible fear claim and likely be released.    During a recent visit by staff to El Paso, Border Patrol and ICE confirmed that they are seeing increased numbers of Bangladeshi, Somalis, Pakistanis, and other nationals of countries of concern coming across the southern border and claiming credible fear.    These anecdotal reports are supported by information that USCIS provided the committee that states that thousands of nationals of these and other countries have claimed credible fear in recent years. For these reasons, Texas DPS has stated that ``an unsecure border with Mexico is the State's most significant vulnerability as it provides criminals and would-be terrorists from around the world a reliable means to enter Texas and the Nation undetected. This is especially concerning today, in light of the recent terrorist attacks and schemes around the world.''    I thank our witnesses for their testimony today and look forward to examining issues related to national security threats at our border and what can be done to combat this growing problem.    I now recognize Mr. Lynch, the ranking member of the Subcommittee on National Security, for his opening statement.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Lynch. Thank you very much, Mr. Chairman.    I also want to thank the panelists for helping the committee with its work.    I would like to also thank Chairman Meadows and Ranking Member Connolly for holding this hearing as well to examine immigration and border security.    I would also like to thank our witnesses again for your expertise in this area.    As reported by the United Nations High Commissioner for Refugees, we are witnessing the largest global forced displacement of people since World War II. Conflict, persecution, violence, and flagrant human rights violations have forcibly displaced nearly 60 million people worldwide, including 19.5 million refugees, 38 million internally displaced persons, and 1.8 million asylum-seekers. That is a 60 percent increase from 37.5 million displaced people recorded by UNHCR a decade ago.    Over 50 percent of the refugee population is now made up of children below 18 years of age, marking the highest child refugee figure in more than 10 years. In 2014, over 34,000 asylum applications were submitted by unaccompanied or separated children across 82 countries. That is the highest count on record since the agency began collecting this data in 2006.    The war in Syria and the rise of the Islamic State have been the driving factors behind the unprecedented surge in global displacement. Approximately 7.6 million people have been internally displaced within Syria alone, and more than 4 million refugees have fled the country since the start of the conflict in 2011.    The stark increase in global forced displacement coupled with devastating terrorist attacks in Paris, San Bernardino, Beirut, Istanbul, and Ankara in Turkey, and just yesterday in Brussels, Belgium, have led to ongoing policy debates in the U.S. over how best to prevent terrorists from infiltrating our legitimate immigration processes.    This is a critical and necessary examination that must entail fact-based oversight of our existing immigration and border security policies across-the-board. In the interest of national security, it must also be undertaken in a manner that continues to reflect our longstanding international commitment as a signatory to the 1951 Geneva Convention to protecting highly vulnerable individuals who are fleeing from persecution and violence, and as stated in a recent letter to Congress signed by 22 U.S. national security leaders from Democratic and Republican administrations alike, and I quote, ``We believe that America can and should continue to provide refuge to those fleeing violence and persecution without compromising the security and safety of our Nation. To do otherwise would undermine our core objective of combating terrorism.''    These leaders included General David Petraeus, the former Commander of U.S. Central Command; George Schultz, the former Secretary of State under President Reagan; and former NATO Supreme Allied Commander James Stavridis, who is now at Tufts University.    In furtherance of this committee's efforts to review our national security framework, Congressman Steve Russell of this committee and I recently traveled on an oversight mission to Turkey, Jordan, and Lebanon to assess and even participate in the vetting processes required for Syrian refugee settlement to the United States.    After visiting refugee camps along the Turkish-Syrian and Jordanian-Syrian borders, and meeting with various refugee families, we discovered that the vast majority, between 70 and 80 percent, are not even interested in resettlement at all. Rather, they seek to stay in the neighboring host countries, Turkey, Lebanon, and Jordan, in the hopes of returning home.    The overwhelming preference of these families is to stay close to Syria, indicating that one of our primary national security goals should be to ensure that financially strained host countries and international humanitarian agencies have the resources necessary to provide a dignified life for their refugee populations in place.    Regarding the vetting process itself, I must say that prior to our oversight visit, I had my serious doubts about the effectiveness of vetting conducted in virtual warzone environments, and I supported both the Republican and Democratic measures to enhance the vetting process.    I would note that the delegation arrived in Beirut only several months after a double suicide bombing in that city that killed over 40 people. We arrived in Istanbul only 4 days after a suicide bombing in a central square that killed 10 German tourists. And we left Kilis province only 1 day before a rocket attack fired from Syria hit a Kilis school.    However, for the small percentage of families who do seek resettlement to the United States, what we found in our oversight of vetting centers in all three host countries was a multilayered vetting process that is robust and extensive. It is conducted by specialized U.N. and U.S. agency personnel trained to ensure that only the most thoroughly vetted and the most vulnerable, or 1 percent, of Syrian refugee applicants are admitted for resettlement.    They are also very cautious in their work, given that any misstep in the vetting process could not only pose a grave danger to the American public, but also effectively halt resettlement for millions of legitimate refugees.    It is this type of fact-based oversight that should guide our review of immigration and border patrol procedures across-the-board. This is absolutely imperative at a time when our Federal agencies responsible for securing homeland security face severe budgetary constraints and every homeland security dollar must be allocated toward the most critical national security risks.    Mr. Chairman, I thank you again for holding this hearing, and I look forward to discussing these and other issues with our witnesses, and I yield back the balance of our time.</t>
   </si>
   <si>
@@ -67,6 +79,12 @@
     <t>412552</t>
   </si>
   <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Meadows. Thank you, Mr. Chairman. Thank you for your leadership.    And thank you, Ranking Member Mr. Lynch, for your not only fact-based willingness to look at the record, but also your willingness to work in a bipartisan manner to address this serious issue.    From the surge of unaccompanied minors and family units from Central America coming across our border to the ongoing Syrian refugee crisis, as well as the fiancee visa that was erroneously issued to the San Bernardino terrorist Tashfeen Malik, there seems to be no shortage of immigration issues that impact our national security. So today's hearing takes a closer look at the national security implications at our Nation's porous borders.    Now, I want to emphasize that it is a national security interest that brings us here today. There are plenty of other rhetoric and discussion that can go on as it relates to immigration and immigration policy. But, indeed, this is looking at not only immigration but at border security and how it affects national security.    It has been in the forefront of much of the political discussion in recent months. The Department of Homeland Security officials have often indicated to the American public that our borders are more secure today than they have ever been. I think many of us have heard that. They tout the low number of apprehensions as proof, which seems to be a little counterintuitive to me.    In fact, the GAO, the Government Accountability Office, has indicated that the DHS has no official metrics in place to measure whether our border is secure or not. So those statements are very difficult to comprehend, if there are no metrics in place.    Representatives from the Border Patrol tell us that the situation at the border is exactly the opposite of what the administration claims.    Undoubtedly, the United States has a proud history of providing refuge to victims of persecution and will continue to be unwavering in our commitment to be that beacon of freedom and hope for those facing persecution around the world. But when this administration fails to enforce our immigration laws, or turns a blind eye to the rampant fraud and abuse while rubberstamping--rubberstamping--credible fear claims at a rate as high as 92 percent, the integrity of our system is undermined. Our generosity is taken advantage of and our national security is at risk.    We should seek to protect the integrity of our immigration system from fraudulent claims made by those seeking to do us harm or subvert our rule of law. Individuals who seek to defraud the asylum process make a mockery of those who are truly persecuted, for those who are fleeing from fear.    The United States is one of the most generous nations in the world, and our asylum system is an extension of that generosity. And yet, various organizations are coaching people to claim credible fear in order to avoid deportation.    By invoking the credible fear claim, most aliens enter into a process by which they await proceedings before an immigration judge, which at the very least buys them more time in the United States. It often takes years, multiple years, before those court dates take place.    In the meantime, the alien is allowed to obtain a work permit, go about their business in the United States and, indeed, could embed in our communities. It seems to me that the word is out that claiming credible fear is the way to go.    The numbers sure say that much to me, and as we look at the credible fear claims that have grown exponentially in recent years, as Chairman DeSantis mentioned in his opening remarks, one of my biggest concerns is that nefarious actors have taken advantage of our generosity.    Gang members, cartel operators, supporters of terrorist groups can game the system and make use of credible fear to remain here in the United States. Even according to DHS, aliens with known or claimed ties to cartels and terrorist groups have been apprehended along the border claiming credible fear.    The data this committee has received confirms that the Border Patrol is encountering migrants from Afghanistan, Bangladesh, Egypt, Iran, Iraq, Lebanon, Pakistan, Saudi Arabia, Somalia, and Turkey. Now this is coming across our southern border, and these are just the individuals that were apprehended.    So what about all of those who were never seen by law enforcement at all and make it into the interior of our country?    I hope to hear from our witnesses today on their assessment of the current holes that might enable these bad actors to take advantage of our system. Most importantly, I would like to hear what should be done to address these deficiencies and help ensure the safety of the American public.    Mr. Chairman, I would like to ask unanimous consent to enter the following documents into the record. One would be U.S. Border Patrol nationwide apprehensions for 2015 and 2016. The other is the USCIS credible fear nationality reports for fiscal year 2014, 2015, and for quarter one of 2016, and the USCIS credible fear data and affirmative asylum case data. I ask unanimous consent.</t>
   </si>
   <si>
@@ -79,30 +97,45 @@
     <t xml:space="preserve">    Mr.  DeSantis. Thank you. I will hold the record open for 5 legislative days for any members who would like to submit a written statement.    We will now recognize our panel of witnesses. I am pleased to welcome Mr. Ronald Vitiello, Acting Chief of the U.S. Border Patrol at the U.S. Customs and Border Protection; Mr. Steven McCraw, director of the Texas Department of Public Safety; Mr. Brandon Judd, president of the National Border Patrol Council; Professor Jan Ting, professor at the Temple University Beasley School of Law; and Ms. Eleanor Acer, senior director of refugee protection at Human Rights First. Welcome all.    Pursuant to committee rules, all witnesses will be sworn in before they testify.    If you can please rise and raise your right hand?    Do you solemnly swear the testimony you are about to give will be the truth, the whole truth, and nothing but the truth, so help you God?    Thank you. Please be seated.    All witnesses answered in the affirmative.    In order to allow time for discussion, please limit your oral testimony to 5 minutes. Your entire written statement will be made part of the record.    Mr. Vitiello, you are up. Five minutes.</t>
   </si>
   <si>
+    <t>Vitiello</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Vitiello. Thank you, Chairman DeSantis, Chairman Meadows, Ranking Member Lynch, and distinguished members of the subcommittees. It is an honor to appear before you today to discuss the role of the United States Border Patrol in protecting national security and defending threats against our border.    During my law enforcement career of more than 30 years in the U.S. Border Patrol, the border environment has changed not only the intentions, tactics, and capabilities of our adversaries, but also in our resources, our capabilities, and our operational approach to securing the border.    Today, we focus not only on responding to the complex and rapidly changing border conditions, but we also work to decrease the risk and potential threats. We do this through strategic and risk-based deployment of resources, and by expanding and increasing our capabilities through intelligence, information-sharing, partnerships, and operational collaboration.    In all border environments--land, air, and sea--technology is critical to security operations. Effective fixed and mobile surveillance and detection systems provide increased situational awareness of illicit cross-border activity. Advanced technology also increases our ability to identify changes in the border environment and rapidly respond as appropriate to emerging threats along and approaching our borders.    Detecting and interdicting terrorists and their weapons will also be a focus priority of the border security mission.    Also, the illegal cross-border activities of transnational criminal organizations involved in cross-border trafficking of guns, currency, human smuggling, and drugs pose a continuous threat to border security and public safety.    Responding to the continued flow of unaccompanied alien children and families across the Southwest border is also a priority.    The border regions in the United States are most secure when using a whole-of-government approach that leverages interagency and international partnerships as a force multiplier. The Border Patrol is an active participant in the DHS Southern Border and Approaches Campaign, and has a leading role in the Joint Task Force-West, an integrated operational approach to addressing the threat of transnational criminal organizations along and approaching the Southwest border. This effort directs DHS resources in a much more collaborative fashion to address the broad and complex range of threats and challenges, including illegal migration; smuggling of illegal drugs, humans and arms trafficking; illicit financing of such operations; and the threat of terrorist exploitation of border vulnerabilities.    The creation of the task force increases information-sharing between Federal, State, local, and international law enforcement agencies; improves situational awareness; enhances border-wide interdiction operations; and improves our ability to counter transnational threats and associated violence.    Using a risk-based and intelligence-driven approach, the Border Patrol and more broadly CBP and DHS will continue to enhance our efforts, anticipate and respond to threats to national security, and ensure the safety of the U.S. public.    The continued focus on unity of effort, in conjunction with intelligence and operational integration, the deployment of advanced technology, enhances our situational awareness, better enables us to effectively and efficiently detect, respond to, and disrupt threats in the Nation's border regions and approaches to the secure the homeland.    In closing, let me state the obvious. It is the men and women of CBP and the Border Patrol agents who face the threats that we will discuss today. Agents deploy in all manner of weather and rough terrain 24/7/365.    I am blessed to be in their leadership cadre. I am grateful for their dedication and professionalism. The Nation is safer, and the communities that they serve are better protected because of their efforts. They have my unwavering support and continued effort to let them do their jobs in the safest manner possible.    Thank you for having me as a witness today. I look forward to the opportunity to testify and your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  DeSantis. Thank you.    Mr. McCraw, 5 minutes.                  STATEMENT OF STEVEN C. McCRAW</t>
   </si>
   <si>
+    <t>McCraw</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  McCraw. Mr. Chairman, members, thank you for the opportunity to testify before you today. Steve McCraw, Texas Department of Public Safety.    I want to echo a few comments that the chief made, but I would be remiss of two things if I didn't first mention the Governor's comments yesterday on the aftermath of the Brussels attack, the cowardly attack by terrorists.    He pointed out that our hearts and prayers are with the Brussels victims. Our minds must realize the consequences of open borders. And our resolve must be security.    Clearly, the Governor and the Texas State Legislature understand the scope and magnitude of the threat and vulnerability of Texas and the rest of the Nation.    What happens on the Texas-Mexico border doesn't just affect Texas or even just the border region. It affects the entire Nation, whether it is transnational crime or if it is a national security threat.    Clearly, special interest aliens are a problem, and we've recognized that. This is not a new phenomenon. As the FBI Special Agent in Charge in 2002, we learned that Border Patrol was detaining, detecting, detaining, apprehending individuals from countries with known Al Qaeda presence at that point in time. That's continued on. It's understandable why Texans are concerned from a national security standpoint.    To that point, we've talked about changes that we've seen over the years, and the chief referred to. Crime is remarkably different. It's more transitory. It's transnational. It's organized. It's more discreet.    Certainly, it can compromise and undermine public safety and homeland security and national security.    From a Texas standpoint, it's been very clear in terms from the Governor and our State Legislature that two things in terms of guiding principles--a sense of urgency and unity of effort.    Fortunately, with the chief over here, I know when he was sector chief of Rio Grande Valley for the Border Patrol, he was a team player. And we were able to do unity of effort and work closely with him.    I can tell you right now that if properly resourced, they have the leadership and type of people that can get the job done to secure the Texas-Mexico border. That's important.    Until that time, our strategic intent by our Legislature, our Governor, the Texas Department of Public Safety, working with our local and other State partners that includes Texas Military Forces, our game wardens, will provide direct support to Border Patrol in the detection, deterrence, and interdiction of smuggling events that occur between the ports of entry, and do so very aggressively.    Every day, we deploy Texas State troopers, Texas Rangers and special agents in the Department of Public Safety from around the State down to the Rio Grande Valley where right now is the epicenter of drug and human smuggling into the United States, and we'll continue to do so. This will be our direction until the border is secure.    There are a number of things that certainly can be done, if properly resourced. There's no doubt that Border Patrol can get the job done. We look forward to that day when they do have the resources to be able to do that.    That concludes my comments at this point.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  DeSantis. Thank you.    Mr. Judd, 5 minutes.</t>
   </si>
   <si>
+    <t>Judd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Judd. Chairman DeSantis, Chairman Meadows, Ranking Member Lynch, I appreciate the opportunity to testify on behalf of the 16,500 Border Patrol agents which I represent.    I am going to stick to my comments on the national security threat of the border and leave out the rhetoric and what might have led to it. But what I will tell you is that the Obama administration and CBP Commissioner Kerlikowske have repeatedly told the American public that the border is more secure today than it has ever been. As a Border Patrol agent, I will tell you the exact opposite.    Commissioner Kerlikowske and the administration have pointed to a decrease in arrests over the past several years, but they failed to give the American public key indicators such as the number of arrests of persons from countries with known terrorist ties or from countries that compete economically with our interests.    In all of fiscal year 2015, the United States Border Patrol arrested five persons from Afghanistan, 57 from Pakistan, and 1,327 from the People's Republic of China. Already in the first 5 months of this fiscal year, the United States Border Patrol has arrested 18 from Afghanistan--the first quarter, five of all last year, the first quarter--18 from Afghanistan, 79 from Pakistan--all of 2015, again, was 18--and 619 from the People's Republic of China. Those numbers should alarm everyone.    We are seeing a similar trend from other key countries like Albania, Bangladesh, and Brazil.    If the single factor for the litmus test is lower numbers, then compared to fiscal year 2015, one must conclude we are failing.    As someone who has been involved in border protection for over 18 years, I can unequivocally tell you the border is not secure, and the situation is getting worse instead of better.    Arrests are not the only factor in determining whether the border is secure. We have to look at the totality of the situation, such as violence, the number of persons evading arrest, and whether organized crime continues to turn a profit.    In the context of the times, we must also look at whether persons from country who would do us harm are able to exploit our weaknesses through our policies or the lack of manpower on the border.    It is well-documented that criminal cartels control the border in the same way inmates control most prison facilities. The cartels are extremely well-organized, pathologically violent, and have an entire infrastructure on both sides of the border.    In Mexico, it is estimated that over 150,000 people have been killed in cartel-related violence. They have killed police officers, judges, elected officials, and ordinary civilians who have crossed their path.    This is the opponent Border Patrol agents face daily. It is an opponent that controls all aspects of border crimes, including narcotics and illegal immigrant smuggling.    One key way to determine whether the cartels are winning is to analyze key data of entries to arrest. Two weeks ago, I was visiting a station in the Del Rio Border Patrol sector. During that week that I was there--I was there 1 day, but during that week in which I was there, a total of 157 known entries came into the United States through that station's area of responsibility.    Of those 157: 74 were arrested; 54 were known to have evaded arrest and furthered their entry into the United States; 17 were able to evade arrest and make it back to Mexico; and 12 were still outstanding and unaccounted for.    That is a 47 percent arrest rate. That is not very good.    But it's not the Border Patrol agents' fault. We're just simply overmanned. We don't have the resources that are necessary.    In fact, yesterday I received an email from an agent in Arizona, and that email said that there was a 10-mile stretch for 2 days, and this is documented on the reports from the Border Patrol management, a 10-mile stretch of border that was unmanned for 2 whole days.    Criminal cartels were able to go to the fence, cut a hole in the fence, drive two vehicles through that hole and escape. They were able then to put the fence back up and try to hide the cuts that they had made.    Border Patrol agents were able to go down and see the vehicle tracks. There was actually a camera that did catch the two vehicles on the border. They didn't see the vehicle drive through the border, but the tracks clearly indicate that it was, and there was no were no other vehicles coming from east, so it had to be those two vehicles that crossed the border.    The scariest part of those vehicles entering into the United States is we don't know what was in this vehicles. We have no idea.    Of those persons that were able to evade arrest in this Del Rio station, those 54 and the 12 outstanding, we don't know where they were from.    It's unfortunate that we're currently in this situation in which it appears that we invite what we're currently experiencing. And because we are overmanned--and it's not that they didn't want to man the border in these two areas in Arizona that this vehicle drove through, they just didn't have the manpower to do it. That is the unfortunate situation today.    I look forward to answering any and all of your questions. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  DeSantis. Thank you.    Professor Jan Ting, 5 minutes.</t>
   </si>
   <si>
+    <t>Ting</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Ting. I share the comments of my copanelists. Thanks to the two subcommittee chairmen and all the members for inviting us here today.    I also share the concern over the statistical information that the members, particularly Mr. Meadows, have referred to. And I share the concern that Mr. Judd has just expressed about the situation at our border.    I want to talk about two issues, in particular, expedited removal and credible fear, that I think bear on the concern that many of us here share.    Prior to 1996, we had no expedited removal, and arriving aliens in the United States could basically stay for a long time by making an asylum claim. There was an enormous backlog, and they were put in line and released on their own recognizance.    There was also a 60 Minutes piece which showed that people were landing at Kennedy Airport every single day without documentation and being released into the general population. That I think pushed Congress in 1996 to enact expedited removal, which on its face provides a way to turn arriving aliens around who lack any documentation.    The problem is, as I discuss in my written comments, in one of the classic bipartisan compromises for which Congress is alternately praised and condemned, Congress enacted expedited removal in a way that provides that if the--first of all, they did two things.    First of all, they determined that the first interview would be a credible fear interview. In the end, even though they tried to take the immigration judges out, as I discuss in my written comments, the immigration judges get back into the process anyway. So while it looks good on its face, expedited removal in practice hasn't worked out very well, even though it has been expanded not just to arriving aliens but within 100 miles of the border.    So expedited removal is potentially a useful tool, but it's hobbled by this credible fear determination and by the ultimate right to delay removal by an appeal to an immigration judge. So there are two problems.    I talked in my written comments about credible fear, and where did credible fear come from anyway? I have some knowledge about that, because I know that in 1991 in the midst of the Haitian migrant crisis, when we had a lot of Haitians heading for the United States, we were trying to kind of in a chaotic situation manage that flow and provide asylum interviews for people. It was very difficult. In fact, we started operating the detention facilities at Guantanamo in an effort to cope with that migrant crisis.    And the Immigration and Naturalization Service invented credible fear kind of on-the-fly as a way of screening out people who obviously were not entitled to asylum. If people couldn't even present a story, which, if true, would entitle them to asylum, we determined that they could be turned around immediately and returned to Haiti without a full-blown asylum interview.    On the other hand, for those people who could articulate a coherent story that seemed credible, they would be allowed to advance to a full-blown asylum interview, recognizing there was a backlog for that and it would slow the process down. But for those people, they would get the full asylum interview.    As it turns out, that credible fear practice was very short-lived, because the numbers were so enormous that President Bush, George H.W. Bush, determined that we couldn't continue processing migrants from Haiti. And he determined that they would all be returned to Haiti without any processing at all.    Obviously, that was challenged by many advocates and went all the way to the Supreme Court of the United States, and the Supreme Court of the United States in 8-to-1 decision in a case called Sale v. United States, which I cite in my written remarks, the Supreme Court of the United States held that that was fine, that the United States had no obligation under its own laws or under international law to conduct asylum interviews on the high seas.    So credible fear was a temporary measure that probably wasn't even necessary in the end. It only lasted for a few months.    And I was startled to see credible fear appear in the statute of the United States as part of our expedited removal process. When expedited removal came in, credible fear shows up in the statute. Where does that come from?    So while it was invented as a device to screen out migrants, as has been commented on, it's being used now as a device to screen people in, so they don't have to actually approve their asylum claims. All they have to do is state a credible fear and they are basically in. They join the queue for an immigration judge, so they can make their asylum claim in removal proceedings. And we know that can sometimes take a long time.    And that the word is out, this is how you do it. You make a good credible fear claim and you're in. In this age of modern, instantaneous communications, that word spreads quickly.    So I am very concerned about that. And I have a number of proposals. I'm over time already, but I do want to say, I think we need to train more asylum officers. We ought to train all of our immigration offices, including Border Patrol agents, in asylum law, and we ought to have them do asylum interviews.    I think we ought to, as I propose in my written comments, remove credible fear from the statute. It doesn't belong there. We should go straight to an asylum interview. And we ought to have enough asylum officers, including trained Border Patrol agents and other Customs and Border Patrol officers, to do that.    I have other recommendations, and I refer you to my written comments. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  DeSantis. Thank you.    Ms. Acer, you are up for 5 minutes.</t>
   </si>
   <si>
+    <t>Acer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms.  Acer. Thank you so much, Chairman DeSantis, Chairman Meadows, Ranking Member Lynch, and members of the subcommittees. It is an honor to be here today to offer our views regarding national security at our borders and the importance of the U.S. commitment to protect refugees.    The horrific terrorist attacks in Brussels yesterday are yet another reminder of the terrible harms that terrorists are inflicting on innocent civilians around the world.    Human Rights First is a nonprofit organization with offices in Texas, New York, and Washington, D.C. We operate one of the largest pro bono legal representation programs for asylum-seekers in the country, working in partnership with lawyers from some of the Nation's leading law firms.    The United States can and must protect its national security, and can and must do so while also complying with its human rights and refugee protection commitments, as made clear in the letter from leading national security experts of both parties referenced earlier by Ranking Member Lynch.    Both at the formal points of entry as well as at our land borders, CBP has extensive tools and databases to identify individuals who present a risk to national security, including databases that contain information from various U.S. agencies and foreign sources. For cases that enter the process through credible fear as well, DHS asylum officers also conduct a range of vetting and checks. Before an individual can be granted asylum, they have to be either interviewed by an asylum officer or through an immigration court hearing.    Only a very small portion of the world's refugees seek protection here in the United States. The increase in Central American claims from the Northern Triangle, including children and families, have not only affected the United States. The U.N. refugee agency has reported that the countries of Mexico, Belize, Costa Rica, Nicaragua, and Panama have seen the number of asylum applications from the Northern Triangle countries grow to nearly 13 times what it was in 2008.    While a very small portion of asylum-seekers also come from outside the hemisphere, many of those small numbers come from top refugee-hosting states, as well as from China.    U.S. leadership in protecting refugees is not only a reflection of American ideals, it also advances U.S. national security and foreign policy interests.    Earlier this year, I too visited Jordan, Lebanon, and Turkey to assess the Syrian refugee crisis. The critical infrastructures of frontline refugee-hosting states are under severe pressure. And as Ryan Crocker, former U.S. Ambassador to Syria, Iraq, and Lebanon, has explained, U.S. efforts to share in hosting some Syrian refugees affirmatively advance U.S. national security interests by helping to protect the stability of a region that is home to some key U.S. allies.    In our policies and practices, as well as in public rhetoric, it's critical to distinguish between the victims of terror and repression on the one hand, and the perpetrators of horrific acts on the other.    As a number of leading U.S. national security experts have described, efforts to bar Syrian refugees, for example, are counterproductive from a national security perspective, as they actually help the ISIL narrative. Former DHS Secretary Michael Chertoff has cautioned that you don't want to play into the narrative of the bad guy. That's giving propaganda to the enemy.    A strong asylum and immigration system that adjudicates the immigration removal cases before it in a timely and fair manner is essential both for ensuring the integrity of the U.S. immigration process as well as for protecting refugees from return to places of persecution.    Yet, over 480,000 immigration court removal cases have now been pending for an average of 667 days in the U.S. immigration courts, with projected average wait times around 3 years. We urge Congress to support the addition of immigration judges and additional support staff to address this backlog.    Finally, the current asylum system is actually failing to provide protection in a manner consistent with this country's commitments. Over the years, so many barriers and hurdles and technical complexities have been added to the asylum system that refugees who seek the protection of the United States often find themselves denied asylum, delayed in receiving protection, or, in many cases that we see from our work day in and day out, lingering for months in jails and jail-like immigration detention facilities.    In our experience, the expedited removal system and the credible fear process, which I think has a 78 percent pass right now, is actually preventing many legitimate refugees from even applying for asylum. I am happy to answer questions about this.    Many cannot navigate this increasingly complicated system without legal counsel, and many go unrepresented because they cannot afford that.    In my testimony, I have outlined a number of additional recommendations, and I'm happy to talk about those. Thank you so much for the opportunity.</t>
   </si>
   <si>
@@ -319,6 +352,9 @@
     <t xml:space="preserve">    Mr.  DeSantis. I thank the gentleman.    The chair now recognizes the gentlewoman from Illinois for 5 minutes.</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms.  Kelly. Thank you, Mr. Chair.    Welcome, witnesses.    In today's complex threat environment, effective counterterrorism and law enforcement efforts rely on sophisticated intelligence-gathering and sharing capabilities. Especially because of their exponential effects, we should focus our efforts to strengthen the border on these intelligence capabilities.    Mr. Vitiello, your written testimony states, and I quote, ``A whole-of-government approach that leverages interagency and international partnerships as a force multiplier has been and will continue to be the most effective way to keep our borders secure.''    Which other agencies does Customs and Border Patrol share intelligence or information with to secure the border?</t>
   </si>
   <si>
@@ -361,6 +397,9 @@
     <t xml:space="preserve">    Mr.  DeSantis. The chair now recognizes the gentleman from Florida, Mr. Mica, for 5 minutes.</t>
   </si>
   <si>
+    <t>Mica</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Mica. Thank you, Mr. Chairman, for holding this joint hearing. I think there couldn't be a better time, with incidents that we have seen most recently and around the world relating to terrorism and our border vulnerability.    I guess you would probably conclude that our borders are porous, a sieve, and tens of thousands of illegals are coming across the border.    Would that be appropriate, Mr. Judd? Do you think that is correct?</t>
   </si>
   <si>
@@ -427,6 +466,12 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Connolly. I thank the chair, and I would ask unanimous consent that my statement be entered into the record in full.</t>
   </si>
   <si>
@@ -514,6 +559,9 @@
     <t xml:space="preserve">    Mr.  DeSantis. The gentleman's time has expired.    The chair now recognizes the gentleman from Georgia for 5 minutes.</t>
   </si>
   <si>
+    <t>Hice</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Hice. Thank you, Mr. Chairman.    Mr. Judd, let me kind of go a little different direction here for a moment. You have noted in the past some of the challenges of securing the border on Federal lands.    Specifically, what sort of obstacles do agents face when access is limited, say due to endangered species or wilderness designations?</t>
   </si>
   <si>
@@ -565,6 +613,12 @@
     <t>412213</t>
   </si>
   <si>
+    <t>Walberg</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Walberg. Thank you, Mr. Chairman.    And thanks to the panel for being here.    Mr. Judd, a constituent of mine who is a DHS officer contacted me. He has been working on the border in California. He expressed concerns about a policy, as he puts it, with California and Mexico where individuals who cross the border illegally cannot be sent home but are processed through, and then released into the U.S. with court dates as long as 7 to 10 years down the road. Are you aware of that policy?</t>
   </si>
   <si>
@@ -649,6 +703,12 @@
     <t>412619</t>
   </si>
   <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Buck. Mr. Judd, real quickly, 2014, as a result of the change in the President's policy on immigration, in 2014, we saw a surge of minors crossing the borders. Is that true?</t>
   </si>
   <si>
@@ -710,6 +770,12 @@
   </si>
   <si>
     <t>412661</t>
+  </si>
+  <si>
+    <t>Grothman</t>
+  </si>
+  <si>
+    <t>Glenn</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  Grothman. I may cover some territory you have already covered a little bit. But I want, in general, and this is a question maybe for Mr. Judd and Mr. Ting, in general, how effective do you believe the administration's commitment to border security has been? And I also want you compare it, because I am not a partisan person. I am under the impression that we were not getting a lot in the past administration either.    So I guess I would like to even change the question to say, how sincere has the commitment been both in this administration and the last administration to border security, which to me is just a basic part of being a country?</t>
@@ -1079,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,7 +1153,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,5405 +1175,6231 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
       <c r="H49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
       <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
       <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
       <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
       <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
       <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
       <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
       <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
       <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
       <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
       <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
       <c r="H71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
       <c r="H73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
       <c r="H75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
       <c r="H77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
       <c r="H79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
       <c r="H81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
       <c r="H83" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
       <c r="H85" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
       <c r="H87" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
       <c r="H89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>112</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>112</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>112</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>112</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>112</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>112</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>112</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>127</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>127</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>127</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>127</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>127</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>127</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>127</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>127</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>27</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>127</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>127</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>136</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G127" t="s">
+        <v>150</v>
+      </c>
       <c r="H127" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I127" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>136</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G129" t="s">
+        <v>150</v>
+      </c>
       <c r="H129" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>136</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G131" t="s">
+        <v>150</v>
+      </c>
       <c r="H131" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>136</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G133" t="s">
+        <v>150</v>
+      </c>
       <c r="H133" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I133" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>136</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G135" t="s">
+        <v>150</v>
+      </c>
       <c r="H135" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I135" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>27</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>136</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G137" t="s">
+        <v>150</v>
+      </c>
       <c r="H137" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>27</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>136</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G139" t="s">
+        <v>150</v>
+      </c>
       <c r="H139" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I139" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>39</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>136</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G141" t="s">
+        <v>150</v>
+      </c>
       <c r="H141" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I141" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>39</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>136</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G143" t="s">
+        <v>150</v>
+      </c>
       <c r="H143" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>27</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>136</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G145" t="s">
+        <v>150</v>
+      </c>
       <c r="H145" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>27</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>136</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G147" t="s">
+        <v>150</v>
+      </c>
       <c r="H147" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I147" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>136</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G149" t="s">
+        <v>150</v>
+      </c>
       <c r="H149" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I149" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>27</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>136</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G151" t="s">
+        <v>150</v>
+      </c>
       <c r="H151" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I151" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>27</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>136</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G153" t="s">
+        <v>150</v>
+      </c>
       <c r="H153" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I153" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>27</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>136</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G155" t="s">
+        <v>150</v>
+      </c>
       <c r="H155" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I155" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>181</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>33</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>181</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>27</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>181</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>27</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>181</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>27</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>181</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>33</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>181</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>36</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>181</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>30</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>39</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>182</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G173" t="s">
+        <v>199</v>
+      </c>
       <c r="H173" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I173" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>33</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>182</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G175" t="s">
+        <v>199</v>
+      </c>
       <c r="H175" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I175" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>33</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>182</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G177" t="s">
+        <v>199</v>
+      </c>
       <c r="H177" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I177" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>33</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>182</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G179" t="s">
+        <v>199</v>
+      </c>
       <c r="H179" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I179" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>33</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>182</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G181" t="s">
+        <v>199</v>
+      </c>
       <c r="H181" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I181" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>27</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>39</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>182</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G184" t="s">
+        <v>199</v>
+      </c>
       <c r="H184" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I184" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>39</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>182</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G186" t="s">
+        <v>199</v>
+      </c>
       <c r="H186" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I186" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>33</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>182</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G188" t="s">
+        <v>199</v>
+      </c>
       <c r="H188" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I188" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>33</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>182</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G190" t="s">
+        <v>199</v>
+      </c>
       <c r="H190" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>33</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>182</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G192" t="s">
+        <v>199</v>
+      </c>
       <c r="H192" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I192" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>30</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>182</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G194" t="s">
+        <v>199</v>
+      </c>
       <c r="H194" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I194" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>30</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>182</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G196" t="s">
+        <v>199</v>
+      </c>
       <c r="H196" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I196" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>30</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>182</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G198" t="s">
+        <v>199</v>
+      </c>
       <c r="H198" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I198" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>210</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G200" t="s">
+        <v>229</v>
+      </c>
       <c r="H200" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I200" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>33</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>210</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G202" t="s">
+        <v>229</v>
+      </c>
       <c r="H202" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I202" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>33</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>210</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G204" t="s">
+        <v>229</v>
+      </c>
       <c r="H204" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I204" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>33</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>210</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G206" t="s">
+        <v>229</v>
+      </c>
       <c r="H206" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I206" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>27</v>
+      </c>
+      <c r="H207" t="s"/>
+      <c r="I207" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>210</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G208" t="s">
+        <v>229</v>
+      </c>
       <c r="H208" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I208" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G209" t="s">
+        <v>27</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>210</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G210" t="s">
+        <v>229</v>
+      </c>
       <c r="H210" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I210" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s"/>
-      <c r="H211" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>27</v>
+      </c>
+      <c r="H211" t="s"/>
+      <c r="I211" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>210</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G212" t="s">
+        <v>229</v>
+      </c>
       <c r="H212" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I212" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>11</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G213" t="s">
+        <v>27</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>210</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G214" t="s">
+        <v>229</v>
+      </c>
       <c r="H214" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I214" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" t="s"/>
-      <c r="H215" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>27</v>
+      </c>
+      <c r="H215" t="s"/>
+      <c r="I215" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>210</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G216" t="s">
+        <v>229</v>
+      </c>
       <c r="H216" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I216" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
-      <c r="H217" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>27</v>
+      </c>
+      <c r="H217" t="s"/>
+      <c r="I217" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>210</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G218" t="s">
+        <v>229</v>
+      </c>
       <c r="H218" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I218" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>11</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>231</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G220" t="s">
+        <v>252</v>
+      </c>
       <c r="H220" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I220" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
-      </c>
-      <c r="G221" t="s"/>
-      <c r="H221" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>36</v>
+      </c>
+      <c r="H221" t="s"/>
+      <c r="I221" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>231</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G222" t="s">
+        <v>252</v>
+      </c>
       <c r="H222" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I222" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G223" t="s">
+        <v>36</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>231</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G224" t="s">
+        <v>252</v>
+      </c>
       <c r="H224" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I224" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>11</v>
-      </c>
-      <c r="G225" t="s"/>
-      <c r="H225" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G225" t="s">
+        <v>33</v>
+      </c>
+      <c r="H225" t="s"/>
+      <c r="I225" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>231</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G226" t="s">
+        <v>252</v>
+      </c>
       <c r="H226" t="s">
-        <v>238</v>
+        <v>253</v>
+      </c>
+      <c r="I226" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23641.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23641.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>400249</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Lynch</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>412552</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Meadows</t>
   </si>
   <si>
@@ -466,6 +475,9 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Connolly</t>
   </si>
   <si>
@@ -611,6 +623,9 @@
   </si>
   <si>
     <t>412213</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Walberg</t>
@@ -1145,7 +1160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1153,7 +1168,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,6228 +1193,6604 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>39</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>39</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>36</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>39</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>42</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>36</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>33</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>36</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>36</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>36</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>112</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>115</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>30</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>112</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>27</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>112</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>115</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>27</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>30</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>112</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>115</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>30</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>112</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>115</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>112</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>115</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>27</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>30</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>112</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>115</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>127</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>130</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>33</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>36</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>127</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>33</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>36</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>127</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>130</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>27</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>30</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>127</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>130</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>27</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>30</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>127</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>130</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>33</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>36</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>127</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>130</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>33</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>36</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>127</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>130</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>27</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>30</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>127</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>130</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>127</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>130</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
-        <v>27</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>30</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>127</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>130</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>27</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>30</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>127</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>130</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G127" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I127" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G129" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I129" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>30</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G131" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I131" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>30</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G133" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H133" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I133" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>30</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G135" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H135" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>27</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>30</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G137" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H137" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I137" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>27</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>30</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G139" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H139" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I139" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>39</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>42</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G141" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H141" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>39</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>42</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G143" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H143" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I143" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J143" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" t="s">
-        <v>27</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>30</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G145" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H145" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I145" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J145" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>30</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G147" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H147" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I147" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J147" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" t="s">
-        <v>27</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>30</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G149" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H149" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I149" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" t="s">
-        <v>27</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>30</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G151" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H151" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I151" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J151" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" t="s">
-        <v>27</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>30</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G153" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H153" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J153" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" t="s">
-        <v>27</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G155" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H155" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I155" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J155" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" t="s">
-        <v>181</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>185</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" t="s">
-        <v>33</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>36</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" t="s">
-        <v>181</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>185</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" t="s">
-        <v>27</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>30</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" t="s">
-        <v>181</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>185</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" t="s">
-        <v>27</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>30</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" t="s">
-        <v>181</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>185</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" t="s">
-        <v>27</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>30</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" t="s">
-        <v>181</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>185</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" t="s">
-        <v>33</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>36</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" t="s">
-        <v>181</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>185</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" t="s">
-        <v>36</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>39</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" t="s">
-        <v>181</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>185</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" t="s">
-        <v>30</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>33</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" t="s">
-        <v>39</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>42</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" t="s">
-        <v>13</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G173" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I173" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" t="s">
-        <v>33</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>36</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G175" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H175" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I175" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J175" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" t="s">
-        <v>33</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>36</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G177" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H177" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I177" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" t="s">
-        <v>33</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>36</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G179" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H179" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I179" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J179" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" t="s">
-        <v>33</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>36</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G181" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H181" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I181" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J181" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" t="s">
-        <v>27</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>30</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183" t="s">
-        <v>39</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>42</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G184" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H184" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I184" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J184" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" t="s">
-        <v>39</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>42</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G186" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H186" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I186" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J186" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" t="s">
-        <v>33</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>36</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G188" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H188" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I188" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J188" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" t="s">
-        <v>33</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>36</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G190" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H190" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I190" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J190" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" t="s">
-        <v>33</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>36</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G192" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H192" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I192" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J192" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" t="s">
-        <v>30</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>33</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G194" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H194" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I194" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J194" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" t="s">
-        <v>30</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>33</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G196" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H196" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I196" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J196" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" t="s">
-        <v>30</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>33</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G198" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H198" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I198" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J198" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
-      </c>
-      <c r="G199" t="s">
-        <v>13</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G200" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="H200" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I200" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J200" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
-      </c>
-      <c r="G201" t="s">
-        <v>33</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>36</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G202" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="H202" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I202" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J202" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" t="s">
-        <v>33</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>36</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G204" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="H204" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I204" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="J204" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205" t="s">
-        <v>33</v>
-      </c>
-      <c r="H205" t="s"/>
-      <c r="I205" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G205" t="s"/>
+      <c r="H205" t="s">
+        <v>36</v>
+      </c>
+      <c r="I205" t="s"/>
+      <c r="J205" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G206" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="H206" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I206" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J206" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" t="s">
-        <v>27</v>
-      </c>
-      <c r="H207" t="s"/>
-      <c r="I207" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G207" t="s"/>
+      <c r="H207" t="s">
+        <v>30</v>
+      </c>
+      <c r="I207" t="s"/>
+      <c r="J207" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G208" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="H208" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I208" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J208" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" t="s">
-        <v>27</v>
-      </c>
-      <c r="H209" t="s"/>
-      <c r="I209" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G209" t="s"/>
+      <c r="H209" t="s">
+        <v>30</v>
+      </c>
+      <c r="I209" t="s"/>
+      <c r="J209" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G210" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="H210" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I210" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J210" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" t="s">
-        <v>27</v>
-      </c>
-      <c r="H211" t="s"/>
-      <c r="I211" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G211" t="s"/>
+      <c r="H211" t="s">
+        <v>30</v>
+      </c>
+      <c r="I211" t="s"/>
+      <c r="J211" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G212" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="H212" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I212" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J212" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" t="s">
-        <v>27</v>
-      </c>
-      <c r="H213" t="s"/>
-      <c r="I213" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G213" t="s"/>
+      <c r="H213" t="s">
+        <v>30</v>
+      </c>
+      <c r="I213" t="s"/>
+      <c r="J213" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G214" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="H214" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I214" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J214" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
-      </c>
-      <c r="G215" t="s">
-        <v>27</v>
-      </c>
-      <c r="H215" t="s"/>
-      <c r="I215" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G215" t="s"/>
+      <c r="H215" t="s">
+        <v>30</v>
+      </c>
+      <c r="I215" t="s"/>
+      <c r="J215" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G216" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="H216" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I216" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J216" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
-      </c>
-      <c r="G217" t="s">
-        <v>27</v>
-      </c>
-      <c r="H217" t="s"/>
-      <c r="I217" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G217" t="s"/>
+      <c r="H217" t="s">
+        <v>30</v>
+      </c>
+      <c r="I217" t="s"/>
+      <c r="J217" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G218" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="H218" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I218" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J218" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
-      </c>
-      <c r="G219" t="s">
-        <v>13</v>
-      </c>
-      <c r="H219" t="s"/>
-      <c r="I219" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G219" t="s"/>
+      <c r="H219" t="s">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s"/>
+      <c r="J219" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G220" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="H220" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I220" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>258</v>
+      </c>
+      <c r="J220" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
-      </c>
-      <c r="G221" t="s">
-        <v>36</v>
-      </c>
-      <c r="H221" t="s"/>
-      <c r="I221" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G221" t="s"/>
+      <c r="H221" t="s">
+        <v>39</v>
+      </c>
+      <c r="I221" t="s"/>
+      <c r="J221" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G222" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="H222" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I222" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>258</v>
+      </c>
+      <c r="J222" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>12</v>
-      </c>
-      <c r="G223" t="s">
-        <v>36</v>
-      </c>
-      <c r="H223" t="s"/>
-      <c r="I223" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G223" t="s"/>
+      <c r="H223" t="s">
+        <v>39</v>
+      </c>
+      <c r="I223" t="s"/>
+      <c r="J223" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F224" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G224" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="H224" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I224" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="J224" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F225" t="s">
-        <v>12</v>
-      </c>
-      <c r="G225" t="s">
-        <v>33</v>
-      </c>
-      <c r="H225" t="s"/>
-      <c r="I225" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G225" t="s"/>
+      <c r="H225" t="s">
+        <v>36</v>
+      </c>
+      <c r="I225" t="s"/>
+      <c r="J225" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E226" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F226" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G226" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="H226" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I226" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="J226" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
